--- a/doc/工程表/工程表0617.xlsx
+++ b/doc/工程表/工程表0617.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\E2\doc\工程表\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5497CCCA-BA4F-4E26-B1EA-048F619B83DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B28F74B-2C54-4EBA-817A-9446CCA5440E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19090" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="6月1日" sheetId="4" r:id="rId1"/>
@@ -893,29 +893,59 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -927,9 +957,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -947,44 +974,17 @@
     <xf numFmtId="176" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" shrinkToFit="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1855,13 +1855,13 @@
       <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>274320</xdr:rowOff>
+      <xdr:rowOff>273050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>10886</xdr:rowOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>10583</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1876,8 +1876,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6879771" y="4835434"/>
-          <a:ext cx="947058" cy="1717766"/>
+          <a:off x="6741583" y="4718050"/>
+          <a:ext cx="920750" cy="2436283"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2048,76 +2048,6 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
             <a:t>完成</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>21772</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>32657</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>21771</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>9797</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DAEAC3E-0CDC-495F-92E3-4F8B9EA6B04B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="6901543" y="6574971"/>
-          <a:ext cx="947057" cy="760912"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="dk1"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:round/>
-          <a:headEnd type="none" w="med" len="med"/>
-          <a:tailEnd type="none" w="med" len="med"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" vert="wordArtVertRtl" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="0"/>
-            <a:t>デザイン流し込み</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -2327,8 +2257,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F461FB36-AA5C-4255-9DAB-20DEB8CADCD8}">
   <dimension ref="A1:AN1001"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AC22" sqref="AC22"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="V26" sqref="V26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.36328125" defaultRowHeight="15" customHeight="1"/>
@@ -2382,18 +2312,18 @@
       <c r="AK1" s="2"/>
     </row>
     <row r="2" spans="1:40" ht="22.5" customHeight="1">
-      <c r="B2" s="58">
+      <c r="B2" s="41">
         <v>2022</v>
       </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
       <c r="E2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="58">
+      <c r="F2" s="41">
         <v>6</v>
       </c>
-      <c r="G2" s="43"/>
+      <c r="G2" s="42"/>
       <c r="H2" s="9" t="s">
         <v>1</v>
       </c>
@@ -2468,56 +2398,56 @@
       <c r="AK3" s="3"/>
     </row>
     <row r="4" spans="1:40" ht="19.5" customHeight="1">
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="32"/>
-      <c r="D4" s="32"/>
-      <c r="E4" s="33"/>
-      <c r="F4" s="38" t="s">
+      <c r="C4" s="36"/>
+      <c r="D4" s="36"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="G4" s="32"/>
-      <c r="H4" s="32"/>
-      <c r="I4" s="32"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="49" t="s">
+      <c r="G4" s="36"/>
+      <c r="H4" s="36"/>
+      <c r="I4" s="36"/>
+      <c r="J4" s="44"/>
+      <c r="K4" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="33"/>
-      <c r="O4" s="38" t="s">
+      <c r="L4" s="36"/>
+      <c r="M4" s="36"/>
+      <c r="N4" s="44"/>
+      <c r="O4" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="P4" s="32"/>
-      <c r="Q4" s="32"/>
-      <c r="R4" s="32"/>
-      <c r="S4" s="33"/>
-      <c r="T4" s="49" t="s">
+      <c r="P4" s="36"/>
+      <c r="Q4" s="36"/>
+      <c r="R4" s="36"/>
+      <c r="S4" s="44"/>
+      <c r="T4" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="U4" s="32"/>
-      <c r="V4" s="32"/>
-      <c r="W4" s="33"/>
-      <c r="X4" s="50">
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="58">
         <v>45448</v>
       </c>
-      <c r="Y4" s="32"/>
-      <c r="Z4" s="32"/>
-      <c r="AA4" s="32"/>
-      <c r="AB4" s="33"/>
-      <c r="AC4" s="49" t="s">
+      <c r="Y4" s="36"/>
+      <c r="Z4" s="36"/>
+      <c r="AA4" s="36"/>
+      <c r="AB4" s="44"/>
+      <c r="AC4" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="AD4" s="32"/>
-      <c r="AE4" s="32"/>
-      <c r="AF4" s="33"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="32"/>
-      <c r="AI4" s="32"/>
-      <c r="AJ4" s="32"/>
-      <c r="AK4" s="33"/>
+      <c r="AD4" s="36"/>
+      <c r="AE4" s="36"/>
+      <c r="AF4" s="44"/>
+      <c r="AG4" s="45"/>
+      <c r="AH4" s="36"/>
+      <c r="AI4" s="36"/>
+      <c r="AJ4" s="36"/>
+      <c r="AK4" s="44"/>
     </row>
     <row r="5" spans="1:40" ht="18.75" customHeight="1">
       <c r="B5" s="2"/>
@@ -2558,53 +2488,53 @@
       <c r="AK5" s="2"/>
     </row>
     <row r="6" spans="1:40" ht="18.75" customHeight="1">
-      <c r="B6" s="39"/>
-      <c r="C6" s="40"/>
-      <c r="D6" s="40"/>
-      <c r="E6" s="41"/>
+      <c r="B6" s="49"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="51"/>
       <c r="F6" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="G6" s="48">
+      <c r="G6" s="57">
         <f>F2</f>
         <v>6</v>
       </c>
-      <c r="H6" s="32"/>
-      <c r="I6" s="32"/>
-      <c r="J6" s="32"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="32"/>
-      <c r="S6" s="32"/>
-      <c r="T6" s="32"/>
-      <c r="U6" s="32"/>
-      <c r="V6" s="32"/>
-      <c r="W6" s="32"/>
-      <c r="X6" s="32"/>
-      <c r="Y6" s="32"/>
-      <c r="Z6" s="32"/>
-      <c r="AA6" s="32"/>
-      <c r="AB6" s="32"/>
-      <c r="AC6" s="32"/>
-      <c r="AD6" s="32"/>
-      <c r="AE6" s="32"/>
-      <c r="AF6" s="32"/>
-      <c r="AG6" s="32"/>
-      <c r="AH6" s="32"/>
-      <c r="AI6" s="32"/>
-      <c r="AJ6" s="32"/>
-      <c r="AK6" s="33"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="K6" s="36"/>
+      <c r="L6" s="36"/>
+      <c r="M6" s="36"/>
+      <c r="N6" s="36"/>
+      <c r="O6" s="36"/>
+      <c r="P6" s="36"/>
+      <c r="Q6" s="36"/>
+      <c r="R6" s="36"/>
+      <c r="S6" s="36"/>
+      <c r="T6" s="36"/>
+      <c r="U6" s="36"/>
+      <c r="V6" s="36"/>
+      <c r="W6" s="36"/>
+      <c r="X6" s="36"/>
+      <c r="Y6" s="36"/>
+      <c r="Z6" s="36"/>
+      <c r="AA6" s="36"/>
+      <c r="AB6" s="36"/>
+      <c r="AC6" s="36"/>
+      <c r="AD6" s="36"/>
+      <c r="AE6" s="36"/>
+      <c r="AF6" s="36"/>
+      <c r="AG6" s="36"/>
+      <c r="AH6" s="36"/>
+      <c r="AI6" s="36"/>
+      <c r="AJ6" s="36"/>
+      <c r="AK6" s="44"/>
     </row>
     <row r="7" spans="1:40" ht="22.5" customHeight="1">
-      <c r="B7" s="42"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
-      <c r="E7" s="44"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="53"/>
       <c r="F7" s="7" t="s">
         <v>7</v>
       </c>
@@ -2734,10 +2664,10 @@
       </c>
     </row>
     <row r="8" spans="1:40" ht="22.5" customHeight="1">
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="47"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="55"/>
+      <c r="D8" s="55"/>
+      <c r="E8" s="56"/>
       <c r="F8" s="8" t="s">
         <v>8</v>
       </c>
@@ -2845,16 +2775,16 @@
       </c>
     </row>
     <row r="9" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A9" s="54" t="s">
+      <c r="A9" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="46" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="32"/>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="33"/>
+      <c r="C9" s="36"/>
+      <c r="D9" s="36"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="44"/>
       <c r="G9" s="19"/>
       <c r="H9" s="20"/>
       <c r="I9" s="20"/>
@@ -2897,14 +2827,14 @@
       </c>
     </row>
     <row r="10" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A10" s="55"/>
-      <c r="B10" s="35" t="s">
+      <c r="A10" s="38"/>
+      <c r="B10" s="46" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="32"/>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="33"/>
+      <c r="C10" s="36"/>
+      <c r="D10" s="36"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="44"/>
       <c r="G10" s="20"/>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
@@ -2946,14 +2876,14 @@
       </c>
     </row>
     <row r="11" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A11" s="55"/>
-      <c r="B11" s="35" t="s">
+      <c r="A11" s="38"/>
+      <c r="B11" s="46" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="32"/>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="33"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="36"/>
+      <c r="F11" s="44"/>
       <c r="G11" s="19"/>
       <c r="H11" s="20"/>
       <c r="I11" s="20"/>
@@ -2996,14 +2926,14 @@
       </c>
     </row>
     <row r="12" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A12" s="55"/>
-      <c r="B12" s="35" t="s">
+      <c r="A12" s="38"/>
+      <c r="B12" s="46" t="s">
         <v>15</v>
       </c>
-      <c r="C12" s="32"/>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="33"/>
+      <c r="C12" s="36"/>
+      <c r="D12" s="36"/>
+      <c r="E12" s="36"/>
+      <c r="F12" s="44"/>
       <c r="G12" s="20"/>
       <c r="H12" s="20"/>
       <c r="I12" s="20"/>
@@ -3044,14 +2974,14 @@
       </c>
     </row>
     <row r="13" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A13" s="55"/>
-      <c r="B13" s="35" t="s">
+      <c r="A13" s="38"/>
+      <c r="B13" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="32"/>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="33"/>
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="44"/>
       <c r="G13" s="19"/>
       <c r="H13" s="20"/>
       <c r="I13" s="20"/>
@@ -3094,16 +3024,16 @@
       </c>
     </row>
     <row r="14" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="39" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="34" t="s">
+      <c r="B14" s="35" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="32"/>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="33"/>
+      <c r="C14" s="36"/>
+      <c r="D14" s="36"/>
+      <c r="E14" s="36"/>
+      <c r="F14" s="44"/>
       <c r="G14" s="20"/>
       <c r="H14" s="20"/>
       <c r="I14" s="20"/>
@@ -3146,14 +3076,14 @@
       </c>
     </row>
     <row r="15" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A15" s="57"/>
-      <c r="B15" s="34" t="s">
+      <c r="A15" s="40"/>
+      <c r="B15" s="35" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="33"/>
+      <c r="C15" s="36"/>
+      <c r="D15" s="36"/>
+      <c r="E15" s="36"/>
+      <c r="F15" s="44"/>
       <c r="G15" s="19"/>
       <c r="H15" s="20"/>
       <c r="I15" s="16"/>
@@ -3190,14 +3120,14 @@
       </c>
     </row>
     <row r="16" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A16" s="57"/>
-      <c r="B16" s="34" t="s">
+      <c r="A16" s="40"/>
+      <c r="B16" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="32"/>
-      <c r="D16" s="32"/>
-      <c r="E16" s="32"/>
-      <c r="F16" s="33"/>
+      <c r="C16" s="36"/>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="44"/>
       <c r="G16" s="20"/>
       <c r="H16" s="20"/>
       <c r="M16" s="15"/>
@@ -3233,14 +3163,14 @@
       </c>
     </row>
     <row r="17" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A17" s="57"/>
-      <c r="B17" s="34" t="s">
+      <c r="A17" s="40"/>
+      <c r="B17" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C17" s="32"/>
-      <c r="D17" s="32"/>
-      <c r="E17" s="32"/>
-      <c r="F17" s="33"/>
+      <c r="C17" s="36"/>
+      <c r="D17" s="36"/>
+      <c r="E17" s="36"/>
+      <c r="F17" s="44"/>
       <c r="G17" s="19"/>
       <c r="H17" s="20"/>
       <c r="N17" s="20"/>
@@ -3268,16 +3198,16 @@
       </c>
     </row>
     <row r="18" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A18" s="51" t="s">
+      <c r="A18" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="32"/>
-      <c r="D18" s="32"/>
-      <c r="E18" s="32"/>
-      <c r="F18" s="33"/>
+      <c r="C18" s="36"/>
+      <c r="D18" s="36"/>
+      <c r="E18" s="36"/>
+      <c r="F18" s="44"/>
       <c r="G18" s="20"/>
       <c r="H18" s="20"/>
       <c r="I18" s="20"/>
@@ -3315,14 +3245,14 @@
       </c>
     </row>
     <row r="19" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A19" s="52"/>
-      <c r="B19" s="34" t="s">
+      <c r="A19" s="33"/>
+      <c r="B19" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="C19" s="32"/>
-      <c r="D19" s="32"/>
-      <c r="E19" s="32"/>
-      <c r="F19" s="33"/>
+      <c r="C19" s="36"/>
+      <c r="D19" s="36"/>
+      <c r="E19" s="36"/>
+      <c r="F19" s="44"/>
       <c r="G19" s="20"/>
       <c r="H19" s="20"/>
       <c r="I19" s="20"/>
@@ -3364,14 +3294,14 @@
       </c>
     </row>
     <row r="20" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A20" s="52"/>
-      <c r="B20" s="34" t="s">
+      <c r="A20" s="33"/>
+      <c r="B20" s="35" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="32"/>
-      <c r="D20" s="32"/>
-      <c r="E20" s="32"/>
-      <c r="F20" s="33"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="44"/>
       <c r="G20" s="19"/>
       <c r="H20" s="20"/>
       <c r="I20" s="20"/>
@@ -3411,14 +3341,14 @@
       </c>
     </row>
     <row r="21" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A21" s="52"/>
-      <c r="B21" s="59" t="s">
+      <c r="A21" s="33"/>
+      <c r="B21" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="60"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="48"/>
       <c r="G21" s="19"/>
       <c r="H21" s="20"/>
       <c r="I21" s="20"/>
@@ -3458,14 +3388,14 @@
       </c>
     </row>
     <row r="22" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A22" s="52"/>
-      <c r="B22" s="36" t="s">
+      <c r="A22" s="33"/>
+      <c r="B22" s="60" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="37"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="61"/>
       <c r="G22" s="20"/>
       <c r="H22" s="20"/>
       <c r="I22" s="20"/>
@@ -3505,14 +3435,14 @@
       </c>
     </row>
     <row r="23" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A23" s="52"/>
-      <c r="B23" s="34" t="s">
+      <c r="A23" s="33"/>
+      <c r="B23" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="33"/>
+      <c r="C23" s="36"/>
+      <c r="D23" s="36"/>
+      <c r="E23" s="36"/>
+      <c r="F23" s="44"/>
       <c r="G23" s="20"/>
       <c r="H23" s="20"/>
       <c r="I23" s="20"/>
@@ -3554,14 +3484,14 @@
       </c>
     </row>
     <row r="24" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A24" s="52"/>
-      <c r="B24" s="34" t="s">
+      <c r="A24" s="33"/>
+      <c r="B24" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="32"/>
-      <c r="E24" s="32"/>
-      <c r="F24" s="33"/>
+      <c r="C24" s="36"/>
+      <c r="D24" s="36"/>
+      <c r="E24" s="36"/>
+      <c r="F24" s="44"/>
       <c r="G24" s="19"/>
       <c r="H24" s="20"/>
       <c r="I24" s="20"/>
@@ -3603,14 +3533,14 @@
       </c>
     </row>
     <row r="25" spans="1:40" ht="22.5" customHeight="1">
-      <c r="A25" s="52"/>
-      <c r="B25" s="34" t="s">
+      <c r="A25" s="33"/>
+      <c r="B25" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="33"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="36"/>
+      <c r="E25" s="36"/>
+      <c r="F25" s="44"/>
       <c r="G25" s="22"/>
       <c r="H25" s="8"/>
       <c r="I25" s="8"/>
@@ -3652,14 +3582,14 @@
       </c>
     </row>
     <row r="26" spans="1:40" ht="24" customHeight="1">
-      <c r="A26" s="53"/>
-      <c r="B26" s="34" t="s">
+      <c r="A26" s="34"/>
+      <c r="B26" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="32"/>
-      <c r="D26" s="32"/>
-      <c r="E26" s="32"/>
-      <c r="F26" s="32"/>
+      <c r="C26" s="36"/>
+      <c r="D26" s="36"/>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
       <c r="G26" s="29"/>
       <c r="H26" s="29"/>
       <c r="I26" s="29"/>
@@ -3699,13 +3629,13 @@
       </c>
     </row>
     <row r="27" spans="1:40" ht="15" customHeight="1">
-      <c r="B27" s="34" t="s">
+      <c r="B27" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="C27" s="32"/>
-      <c r="D27" s="32"/>
-      <c r="E27" s="32"/>
-      <c r="F27" s="32"/>
+      <c r="C27" s="36"/>
+      <c r="D27" s="36"/>
+      <c r="E27" s="36"/>
+      <c r="F27" s="36"/>
       <c r="G27" s="29"/>
       <c r="H27" s="29"/>
       <c r="I27" s="29"/>
@@ -3739,7 +3669,7 @@
       <c r="AL27" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="AM27" s="61" t="s">
+      <c r="AM27" s="31" t="s">
         <v>42</v>
       </c>
       <c r="AN27" s="25">
@@ -3750,13 +3680,13 @@
       <c r="A28" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="32"/>
-      <c r="D28" s="32"/>
-      <c r="E28" s="32"/>
-      <c r="F28" s="33"/>
+      <c r="C28" s="36"/>
+      <c r="D28" s="36"/>
+      <c r="E28" s="36"/>
+      <c r="F28" s="44"/>
       <c r="G28" s="26"/>
       <c r="H28" s="26"/>
       <c r="I28" s="26"/>
@@ -40779,6 +40709,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="B28:F28"/>
+    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B23:F23"/>
+    <mergeCell ref="B24:F24"/>
+    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="B17:F17"/>
+    <mergeCell ref="B18:F18"/>
+    <mergeCell ref="B19:F19"/>
+    <mergeCell ref="B22:F22"/>
+    <mergeCell ref="AG4:AK4"/>
+    <mergeCell ref="B6:E8"/>
+    <mergeCell ref="G6:AK6"/>
+    <mergeCell ref="O4:S4"/>
+    <mergeCell ref="B9:F9"/>
+    <mergeCell ref="K4:N4"/>
+    <mergeCell ref="T4:W4"/>
+    <mergeCell ref="X4:AB4"/>
+    <mergeCell ref="AC4:AF4"/>
     <mergeCell ref="A18:A26"/>
     <mergeCell ref="B26:F26"/>
     <mergeCell ref="A9:A13"/>
@@ -40795,25 +40744,6 @@
     <mergeCell ref="B13:F13"/>
     <mergeCell ref="B20:F20"/>
     <mergeCell ref="B21:F21"/>
-    <mergeCell ref="AG4:AK4"/>
-    <mergeCell ref="B6:E8"/>
-    <mergeCell ref="G6:AK6"/>
-    <mergeCell ref="O4:S4"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="K4:N4"/>
-    <mergeCell ref="T4:W4"/>
-    <mergeCell ref="X4:AB4"/>
-    <mergeCell ref="AC4:AF4"/>
-    <mergeCell ref="B28:F28"/>
-    <mergeCell ref="B27:F27"/>
-    <mergeCell ref="B23:F23"/>
-    <mergeCell ref="B24:F24"/>
-    <mergeCell ref="B15:F15"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="B17:F17"/>
-    <mergeCell ref="B18:F18"/>
-    <mergeCell ref="B19:F19"/>
-    <mergeCell ref="B22:F22"/>
   </mergeCells>
   <phoneticPr fontId="8"/>
   <conditionalFormatting sqref="G7:AK8">
